--- a/Info/USACE_Offices.xlsx
+++ b/Info/USACE_Offices.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/Distribution/Info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/ecohydrology/Distribution/Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DFEAF-8448-3D4B-833E-BDC64EAA2E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55B97C-AF00-CC4C-BF65-5B381686A3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="2060" windowWidth="26840" windowHeight="15940" xr2:uid="{7BEB02AD-DF7C-1B49-A3BF-D87230F243F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="239">
   <si>
     <t>URL</t>
   </si>
@@ -367,12 +370,6 @@
     <t>https://www.erdc.usace.army.mil/</t>
   </si>
   <si>
-    <t>Army Geospatial Center</t>
-  </si>
-  <si>
-    <t>https://www.agc.army.mil/</t>
-  </si>
-  <si>
     <t>South Pacific Border District</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>HNC</t>
   </si>
   <si>
-    <t>AGC</t>
-  </si>
-  <si>
     <t>SPB</t>
   </si>
   <si>
@@ -731,13 +725,43 @@
   </si>
   <si>
     <t>Phoenix, AZ</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>EL-Davis</t>
+  </si>
+  <si>
+    <t>Ft. Worth District</t>
+  </si>
+  <si>
+    <t>Great Lakes and Ohio River Division</t>
+  </si>
+  <si>
+    <t>HEC</t>
+  </si>
+  <si>
+    <t>Mississippi District</t>
+  </si>
+  <si>
+    <t>Northwest Division</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -749,6 +773,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -775,9 +807,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1093,300 +1128,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47BE395-BC66-8748-A34F-B7FC804D0C6E}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>-106.51889354478401</v>
+      </c>
+      <c r="G3">
+        <v>35.153812576546997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <v>-76.612304608156094</v>
+      </c>
+      <c r="G4">
+        <v>39.290208148863002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>-78.878317958185505</v>
+      </c>
+      <c r="G5">
+        <v>42.886408301489098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>-79.927039214995403</v>
+      </c>
+      <c r="G6">
+        <v>32.7797167610575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>-87.571446844895704</v>
+      </c>
+      <c r="G7">
+        <v>41.876517547713703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8">
+        <v>-104.99078464283799</v>
+      </c>
+      <c r="G8">
+        <v>39.8750495466413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>-82.950811011731105</v>
+      </c>
+      <c r="G9">
+        <v>42.330105432160998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10">
+        <v>-121.743695622025</v>
+      </c>
+      <c r="G10">
+        <v>38.543358436453197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11">
+        <v>-90.838145753309007</v>
+      </c>
+      <c r="G11">
+        <v>32.373925252712802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12">
+        <v>-97.238304008183206</v>
+      </c>
+      <c r="G12">
+        <v>32.797014379002498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>-94.750838963413301</v>
+      </c>
+      <c r="G13">
+        <v>29.3113115748572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14">
+        <v>-84.511619311410499</v>
+      </c>
+      <c r="G14">
+        <v>39.1040500613313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15">
+        <v>-121.743695622025</v>
+      </c>
+      <c r="G15">
+        <v>38.543358436453197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16">
+        <v>-82.443604074247105</v>
+      </c>
+      <c r="G16">
+        <v>38.426915885968597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>-81.601128241887693</v>
+      </c>
+      <c r="G17">
+        <v>30.360046838294199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>-94.416027021477802</v>
+      </c>
+      <c r="G18">
+        <v>39.099220380067599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="F19">
+        <v>-92.278596895806402</v>
+      </c>
+      <c r="G19">
+        <v>34.748445511275698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>-118.229599482303</v>
+      </c>
+      <c r="G20">
+        <v>34.059218411291198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1394,181 +1604,298 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <v>-89.990833318332903</v>
+      </c>
+      <c r="G21">
+        <v>35.165445393214398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>-78.162992914326907</v>
+      </c>
+      <c r="G22">
+        <v>39.185242291505602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23">
+        <v>-90.838145753309007</v>
+      </c>
+      <c r="G23">
+        <v>32.373925252712802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24">
+        <v>-90.838145753309007</v>
+      </c>
+      <c r="G24">
+        <v>32.373925252712802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>-88.003766946473505</v>
+      </c>
+      <c r="G25">
+        <v>30.712062015690599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <v>-86.737246244001895</v>
+      </c>
+      <c r="G26">
+        <v>36.170943736010003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27">
+        <v>-71.349334216154602</v>
+      </c>
+      <c r="G27">
+        <v>42.460577569803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>-89.9501677340822</v>
+      </c>
+      <c r="G28">
+        <v>29.945942558590499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>-74.005972573955901</v>
+      </c>
+      <c r="G29">
+        <v>40.712776892039201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30">
+        <v>-76.285568822136696</v>
+      </c>
+      <c r="G30">
+        <v>36.851296960499504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>-74.005972573955901</v>
+      </c>
+      <c r="G31">
+        <v>40.712776892039201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32">
+        <v>-122.646261155006</v>
+      </c>
+      <c r="G32">
+        <v>45.535270517710501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33">
+        <v>-95.755382691396207</v>
+      </c>
+      <c r="G33">
+        <v>41.245491526472101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1576,380 +1903,537 @@
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>-75.169409789297802</v>
+      </c>
+      <c r="G34">
+        <v>39.953008316835202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>149</v>
       </c>
       <c r="D35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35">
+        <v>-79.9959261031495</v>
+      </c>
+      <c r="G35">
+        <v>40.440590795318698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>-122.646261155006</v>
+      </c>
+      <c r="G36">
+        <v>45.535270517710501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37">
+        <v>-90.581303549351901</v>
+      </c>
+      <c r="G37">
+        <v>41.518511891311697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>-121.522683774881</v>
+      </c>
+      <c r="G38">
+        <v>38.581442399326498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>-122.39746768738</v>
+      </c>
+      <c r="G39">
+        <v>37.784946496762799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40">
+        <v>-81.090936013007905</v>
+      </c>
+      <c r="G40">
+        <v>32.0797678459965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>-122.274615781335</v>
+      </c>
+      <c r="G41">
+        <v>47.632265491919902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42">
+        <v>-84.379323726265298</v>
+      </c>
+      <c r="G42">
+        <v>33.746939107799598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43">
+        <v>-122.39746768738</v>
+      </c>
+      <c r="G43">
+        <v>37.784946496762799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>-96.645286952776601</v>
+      </c>
+      <c r="G44">
+        <v>32.795144981318998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45">
+        <v>-90.107633769434102</v>
+      </c>
+      <c r="G45">
+        <v>38.647106805050598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46">
+        <v>-93.077406305843397</v>
+      </c>
+      <c r="G46">
+        <v>44.976637436392402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>-78.162992914326907</v>
+      </c>
+      <c r="G47">
+        <v>39.185242291505602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>-95.914425483905404</v>
+      </c>
+      <c r="G48">
+        <v>36.182391360774503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <v>-118.301219087037</v>
+      </c>
+      <c r="G49">
+        <v>46.088594613896397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50">
+        <v>-75.549308029932106</v>
+      </c>
+      <c r="G50">
+        <v>39.744459765715199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51">
+        <v>-104.99078464283799</v>
+      </c>
+      <c r="G51">
+        <v>39.8750495466413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52">
+        <v>-121.743695622025</v>
+      </c>
+      <c r="G52">
+        <v>38.543358436453197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="54" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>174</v>
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C60" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B59" r:id="rId1" xr:uid="{B905BF18-B400-D743-91D2-B5E1CA94C7C3}"/>
-    <hyperlink ref="B60" r:id="rId2" xr:uid="{C875084D-A673-3449-8263-4B47B3F7B1A9}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{B905BF18-B400-D743-91D2-B5E1CA94C7C3}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{C875084D-A673-3449-8263-4B47B3F7B1A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
